--- a/DB/Tablas de aprendizaje de movimientos/Spearow (S) y Fearow (S).xlsx
+++ b/DB/Tablas de aprendizaje de movimientos/Spearow (S) y Fearow (S).xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\descargas\RETOCAR Tablas de movimientos - copia\Tablas de aprendizaje de movimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfax\Desktop\convertidas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Spearow (S)" sheetId="1" r:id="rId1"/>
     <sheet name="Fearow (S)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Fearow (S)'!$A$2:$A$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Spearow (S)'!$A$2:$A$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Fearow (S)'!$A$2:$A$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Spearow (S)'!$A$2:$A$23</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">'Fearow (S)'!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">'Spearow (S)'!#REF!</definedName>
   </definedNames>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
   <si>
     <t>Movimiento</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Aprendizaje</t>
   </si>
   <si>
-    <t>Malicioso</t>
-  </si>
-  <si>
     <t>Patada salto</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>Protección</t>
   </si>
   <si>
-    <t>Hoja mágica</t>
-  </si>
-  <si>
     <t>Golpe bis</t>
   </si>
   <si>
@@ -174,13 +168,13 @@
     <t>Sol matinal</t>
   </si>
   <si>
-    <t>Acua aro</t>
+    <t>Finta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -519,19 +513,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C14" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,180 +533,180 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -722,19 +716,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,276 +736,260 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3">
         <v>17</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3">
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="B25" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="3">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
       <c r="B30" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/DB/Tablas de aprendizaje de movimientos/Spearow (S) y Fearow (S).xlsx
+++ b/DB/Tablas de aprendizaje de movimientos/Spearow (S) y Fearow (S).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfax\Desktop\convertidas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oxikr\source\repos\monster-Feudal\DB\Tablas de aprendizaje de movimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -174,7 +174,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
